--- a/Tables/Service.xlsx
+++ b/Tables/Service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209ECCAB-C995-462E-B34E-299157F3A77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1D95D0-238C-4EF0-A6D1-50948BC628F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="220" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -439,13 +439,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
